--- a/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 07 - Colisiones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juandiegocalixto/Desktop/Uniandes/2do SEMESTRE/EDA/LABORATORIOS/CODIGO/LabCollision-S07-G05/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="511" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5A6E5986-5D76-40E6-8BB6-4E7550720C79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5BB243-BD99-B24C-B272-6F2E0815B6FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2127" yWindow="7073" windowWidth="4267" windowHeight="2354" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14260" windowHeight="19180" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <r>
       <t>Factor de Carga</t>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Consumo de Datos [kB]</t>
+  </si>
+  <si>
+    <t>Maquina 1</t>
+  </si>
+  <si>
+    <t>Maquina 2</t>
   </si>
 </sst>
 </file>
@@ -97,15 +103,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,11 +125,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -131,63 +152,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -307,7 +285,107 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -577,16 +655,16 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$B$3:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>466397.484</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>466397.484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115</c:v>
+                  <c:v>466397.484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,16 +673,16 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$C$3:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>9531.2350000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>9578.5370000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>9747.8490000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,16 +781,16 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$B$10:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>466397.484</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>466397.484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>466397.484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,16 +799,16 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$C$10:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>9526.7340000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>9595.0040000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>9442.3780000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,7 +917,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -961,7 +1039,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1678,24 +1756,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A2:C5" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A9:C12" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4063E47B-0E2F-B144-B59D-831C98811039}" name="Table14" displayName="Table14" ref="A17:C20" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A17:C20" xr:uid="{30E3D169-FF80-C64E-9EBC-FC0180329D56}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{88166CC3-152F-C841-9A72-D7E7211F8CCF}" name="Factor de Carga (PROBING)" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DD51B50E-3C15-F541-878F-F8BB05FAC32F}" name="Consumo de Datos [kB]"/>
+    <tableColumn id="3" xr3:uid="{346C7BC6-4414-B242-A27A-2BDE448E42AA}" name="Tiempo de Ejecución [ms]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{076B1737-AA9F-5E42-8F9A-349004D281D0}" name="Table135" displayName="Table135" ref="A24:C27" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A24:C27" xr:uid="{54FE2EB4-9425-F647-B1F2-5FDCAF4B547F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4B61CD39-D970-3048-B075-A954E0F4843B}" name="Factor de Carga (CHAINING)" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{75BCDF83-D18F-9444-AA34-C2BE1210D5BF}" name="Consumo de Datos [kB]"/>
+    <tableColumn id="3" xr3:uid="{AB79D818-2424-554C-9294-52C65435D758}" name="Tiempo de Ejecución [ms]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1998,27 +2100,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.64453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.05859375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.8203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2029,47 +2131,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0.3</v>
       </c>
-      <c r="B3" s="2">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45</v>
+      <c r="B3" s="5">
+        <v>466397.484</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9531.2350000000006</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
-      <c r="B4" s="2">
-        <v>105</v>
-      </c>
-      <c r="C4" s="2">
-        <v>55</v>
+      <c r="B4" s="6">
+        <v>466397.484</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9578.5370000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.8</v>
       </c>
-      <c r="B5" s="2">
-        <v>115</v>
-      </c>
-      <c r="C5" s="2">
-        <v>75</v>
+      <c r="B5" s="7">
+        <v>466397.484</v>
+      </c>
+      <c r="C5" s="7">
+        <v>9747.8490000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2080,54 +2185,178 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2">
-        <v>90</v>
+      <c r="B10" s="5">
+        <v>466397.484</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9526.7340000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="2">
-        <v>120</v>
-      </c>
-      <c r="C11" s="2">
-        <v>100</v>
+      <c r="B11" s="6">
+        <v>466397.484</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9595.0040000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
-        <v>140</v>
-      </c>
-      <c r="C12" s="2">
-        <v>110</v>
+      <c r="B12" s="7">
+        <v>466397.484</v>
+      </c>
+      <c r="C12" s="7">
+        <v>9442.3780000000006</v>
       </c>
     </row>
-    <row r="21" ht="14.7" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B18" s="5">
+        <v>466353.29</v>
+      </c>
+      <c r="C18" s="5">
+        <v>9150.48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B19" s="6">
+        <v>466353.29</v>
+      </c>
+      <c r="C19" s="6">
+        <v>9261.2009999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B20" s="7">
+        <v>466353.29</v>
+      </c>
+      <c r="C20" s="7">
+        <v>9236.9709999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5">
+        <v>466361.50099999999</v>
+      </c>
+      <c r="C25" s="5">
+        <v>9767.2990000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="6">
+        <v>466361.50099999999</v>
+      </c>
+      <c r="C26" s="6">
+        <v>9585.1730000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" s="7">
+        <v>466361.50099999999</v>
+      </c>
+      <c r="C27" s="7">
+        <v>9667.9449999999997</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -2338,36 +2567,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2390,9 +2593,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>